--- a/project-task-7/Task7_BE_Services.xlsx
+++ b/project-task-7/Task7_BE_Services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/polparracatalan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4E5BC20-AFCF-7A43-BC49-9A3EE8D33AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736EC04D-9761-4764-8B5F-8A54768983F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{477374E4-32E2-DB43-8F0E-0A19EE617A00}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="16440" activeTab="2" xr2:uid="{477374E4-32E2-DB43-8F0E-0A19EE617A00}"/>
   </bookViews>
   <sheets>
     <sheet name="Task-6" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="122">
   <si>
     <t xml:space="preserve">BE services </t>
   </si>
@@ -188,12 +188,6 @@
     <t>/products/{product_id}</t>
   </si>
   <si>
-    <t>/qr/scan</t>
-  </si>
-  <si>
-    <t>/qr/{product_id}</t>
-  </si>
-  <si>
     <t>/clients</t>
   </si>
   <si>
@@ -203,69 +197,21 @@
     <t>/statistics</t>
   </si>
   <si>
-    <t>/statistics/{category}</t>
-  </si>
-  <si>
-    <t>/auth/user/{user_id}</t>
-  </si>
-  <si>
-    <t>/auth/register</t>
-  </si>
-  <si>
-    <t>/auth/login</t>
-  </si>
-  <si>
-    <t>/products/{product_id}/details</t>
-  </si>
-  <si>
-    <t>/products/{product_id}/reviews/{review_id}</t>
-  </si>
-  <si>
-    <t>/products/{product_id}/reviews</t>
-  </si>
-  <si>
-    <t>/products/{product_id}/prices</t>
-  </si>
-  <si>
     <t>Retrieves a list of all news articles.</t>
   </si>
   <si>
-    <t>Retrieves a specific news article.</t>
-  </si>
-  <si>
     <t>Retrieves a list of all supermarkets.</t>
   </si>
   <si>
-    <t>Retrieves details for a specific supermarket.</t>
-  </si>
-  <si>
     <t>Retrieves a list of all products.</t>
   </si>
   <si>
     <t>Retrieves details for a specific product.</t>
   </si>
   <si>
-    <t>Retrieves the price for a specific product.</t>
-  </si>
-  <si>
     <t>Updates the price for a specific product.</t>
   </si>
   <si>
-    <t>Retrieves all reviews for a specific product.</t>
-  </si>
-  <si>
-    <t>Submits a new review for a specific product.</t>
-  </si>
-  <si>
-    <t>Retrieves a specific review for a product.</t>
-  </si>
-  <si>
-    <t>Updates a specific review for a product.</t>
-  </si>
-  <si>
-    <t>Handles the scanning of a QR code and retrieves product information.</t>
-  </si>
-  <si>
     <t>Retrieves the QR code linked to a specific product.</t>
   </si>
   <si>
@@ -275,31 +221,178 @@
     <t>Retrieves detailed information for a specific client.</t>
   </si>
   <si>
-    <t>Retrieves a list of all clients.</t>
-  </si>
-  <si>
     <t>Retrieves statistics for a specific category.</t>
   </si>
   <si>
     <t>Retrieves all statistics.</t>
   </si>
   <si>
-    <t>Retrieves user profile information.</t>
-  </si>
-  <si>
-    <t>Handles user registration.</t>
-  </si>
-  <si>
-    <t>Handles user login.</t>
-  </si>
-  <si>
-    <t>Retrieves detailed information for a specific product.</t>
-  </si>
-  <si>
-    <t>Deletes a specific review for a product.</t>
-  </si>
-  <si>
     <t>Request Description</t>
+  </si>
+  <si>
+    <t>Retrieves a specific news article by its unique identifier.</t>
+  </si>
+  <si>
+    <t>Creates a new news article.</t>
+  </si>
+  <si>
+    <t>/news/{article_id}</t>
+  </si>
+  <si>
+    <t>Updates an existing news article.</t>
+  </si>
+  <si>
+    <t>Deletes a specific news article.</t>
+  </si>
+  <si>
+    <t>Deletes all news articles.</t>
+  </si>
+  <si>
+    <t>Retrieves a specific supermarket by its unique identifier.</t>
+  </si>
+  <si>
+    <t>Updates list about a supermarket.</t>
+  </si>
+  <si>
+    <t>Deletes a specific supermarket.</t>
+  </si>
+  <si>
+    <t>Deletes all supermarket.</t>
+  </si>
+  <si>
+    <t>Adds a new product to the catalog.</t>
+  </si>
+  <si>
+    <t>Updates a specific product in the catalog.</t>
+  </si>
+  <si>
+    <t>Deletes all products from the catalog.</t>
+  </si>
+  <si>
+    <t>Deletes a specific product from the catalog.</t>
+  </si>
+  <si>
+    <t>Retrieves prices for all products.</t>
+  </si>
+  <si>
+    <t>/prices/products</t>
+  </si>
+  <si>
+    <t>/prices/products/{product_id}</t>
+  </si>
+  <si>
+    <t>Updates the price of a specific product</t>
+  </si>
+  <si>
+    <t>Deletes the price of a specific product</t>
+  </si>
+  <si>
+    <t>/reviews/products</t>
+  </si>
+  <si>
+    <t>/reviews/products/{product_id}</t>
+  </si>
+  <si>
+    <t>Retrieves reviews for a specific product.</t>
+  </si>
+  <si>
+    <t>Adds a new review for a specific product.</t>
+  </si>
+  <si>
+    <t>Updates an existing review.</t>
+  </si>
+  <si>
+    <t>Deletes all reviews.</t>
+  </si>
+  <si>
+    <t>Deletes a specific review.</t>
+  </si>
+  <si>
+    <t>/details/products</t>
+  </si>
+  <si>
+    <t>/details/products/{product_id}</t>
+  </si>
+  <si>
+    <t>Retrieves all reviews for all products.</t>
+  </si>
+  <si>
+    <t>Retrieves all details for all products.</t>
+  </si>
+  <si>
+    <t>Adds a new details for a specific product.</t>
+  </si>
+  <si>
+    <t>Updates an existing detail.</t>
+  </si>
+  <si>
+    <t>Updates the information of a specific client.</t>
+  </si>
+  <si>
+    <t>Updates the information of all clients.</t>
+  </si>
+  <si>
+    <t>Deletes a specific client.</t>
+  </si>
+  <si>
+    <t>Deletes all clients</t>
+  </si>
+  <si>
+    <t>Updates specific details of a client.</t>
+  </si>
+  <si>
+    <t>Deletess specific details of a client.</t>
+  </si>
+  <si>
+    <t>/statistics/{statistics_id}</t>
+  </si>
+  <si>
+    <t>Allows clients to authenticate by providing credentials.</t>
+  </si>
+  <si>
+    <t>Adds a new statistics for a specific category.</t>
+  </si>
+  <si>
+    <t>Updates specific statistics.</t>
+  </si>
+  <si>
+    <t>Deletes all the statistics</t>
+  </si>
+  <si>
+    <t>Deletes a specific statistics</t>
+  </si>
+  <si>
+    <t>/auth</t>
+  </si>
+  <si>
+    <t>/auth/{client_id}</t>
+  </si>
+  <si>
+    <t>/auth/{client_id}/Login (Token)</t>
+  </si>
+  <si>
+    <t>/auth/{client_id}/details</t>
+  </si>
+  <si>
+    <t>Retrieves information  list of all clients.</t>
+  </si>
+  <si>
+    <t>Deletes information of all clients</t>
+  </si>
+  <si>
+    <t>Deletes information of a a specific clients</t>
+  </si>
+  <si>
+    <t>Sends an image of a QR code to be scanned and processed</t>
+  </si>
+  <si>
+    <t>Deletes a specific QR code scan record</t>
+  </si>
+  <si>
+    <t>/scan/{product_id}</t>
+  </si>
+  <si>
+    <t>/scan</t>
   </si>
 </sst>
 </file>
@@ -321,7 +414,7 @@
       <name val="ProximaNova"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,8 +433,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -548,28 +653,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -577,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -613,6 +703,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -633,149 +738,92 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,11 +1166,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E4093F-1FED-D54A-8CA0-61F60768FD57}">
   <dimension ref="B5:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.83203125" bestFit="1" customWidth="1"/>
@@ -1130,30 +1178,30 @@
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:6" ht="17" thickBot="1">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+    <row r="5" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="2:6" ht="19" thickBot="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="18"/>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6" ht="18.5" thickBot="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:6" ht="38" customHeight="1" thickBot="1">
       <c r="B8" s="9" t="s">
@@ -1179,7 +1227,7 @@
       </c>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="2:6" ht="35" thickBot="1">
+    <row r="10" spans="2:6" ht="16.5" thickBot="1">
       <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1239,7 @@
       </c>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="2:6" ht="18" thickBot="1">
+    <row r="11" spans="2:6" ht="16.5" thickBot="1">
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1203,7 +1251,7 @@
       </c>
       <c r="E11" s="7"/>
     </row>
-    <row r="12" spans="2:6" ht="18" thickBot="1">
+    <row r="12" spans="2:6" ht="16.5" thickBot="1">
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
@@ -1215,7 +1263,7 @@
       </c>
       <c r="E12" s="7"/>
     </row>
-    <row r="13" spans="2:6" ht="35" thickBot="1">
+    <row r="13" spans="2:6" ht="32.5" thickBot="1">
       <c r="B13" s="8" t="s">
         <v>35</v>
       </c>
@@ -1227,7 +1275,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="2:6" ht="18" thickBot="1">
+    <row r="14" spans="2:6" ht="16.5" thickBot="1">
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
@@ -1239,7 +1287,7 @@
       </c>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="2:6" ht="18" thickBot="1">
+    <row r="15" spans="2:6" ht="16.5" thickBot="1">
       <c r="B15" s="8" t="s">
         <v>28</v>
       </c>
@@ -1250,7 +1298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="18" thickBot="1">
+    <row r="16" spans="2:6" ht="16.5" thickBot="1">
       <c r="B16" s="8" t="s">
         <v>31</v>
       </c>
@@ -1261,7 +1309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18" thickBot="1">
+    <row r="17" spans="2:4" ht="16.5" thickBot="1">
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
@@ -1292,25 +1340,25 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17" thickBot="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-    </row>
-    <row r="3" spans="1:2" ht="17">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1318,7 +1366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="34">
+    <row r="4" spans="1:2" ht="32">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="52" thickBot="1">
+    <row r="5" spans="1:2" ht="48.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1345,488 +1393,727 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA5F7D8-3723-8944-9BBA-A7AF439618C4}">
-  <dimension ref="B5:H31"/>
+  <dimension ref="B5:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="24"/>
-    <col min="2" max="2" width="19" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="24"/>
-    <col min="6" max="6" width="18.1640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="36.1640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="24"/>
+    <col min="1" max="1" width="10.83203125" style="12"/>
+    <col min="2" max="2" width="19" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:8" ht="17" thickBot="1"/>
-    <row r="6" spans="2:8">
-      <c r="B6" s="49" t="s">
+    <row r="5" spans="2:5" ht="16.5" thickBot="1"/>
+    <row r="6" spans="2:5">
+      <c r="B6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="49" t="s">
+      <c r="C6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="D6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="E6" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="43"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="36"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="45"/>
+      <c r="C9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="45"/>
+      <c r="C10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="45"/>
+      <c r="C11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="45"/>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="46"/>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="48"/>
+      <c r="C15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="48"/>
+      <c r="C16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="48"/>
+      <c r="C17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="49"/>
+      <c r="C18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16" customHeight="1">
+      <c r="B19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="45"/>
+      <c r="C20" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="45"/>
+      <c r="C21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="45"/>
+      <c r="C22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="45"/>
+      <c r="C23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="46"/>
+      <c r="C24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="51"/>
+      <c r="C26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="51"/>
+      <c r="C27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="51"/>
+      <c r="C28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="35" customHeight="1">
+      <c r="B29" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="35" customHeight="1">
+      <c r="B30" s="45"/>
+      <c r="C30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="45"/>
+      <c r="C31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="45"/>
+      <c r="C32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="17" thickBot="1">
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="54"/>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="48" t="s">
+    <row r="33" spans="2:5">
+      <c r="B33" s="45"/>
+      <c r="C33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="46"/>
+      <c r="C34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="17" thickBot="1">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="45"/>
-      <c r="F9" s="28" t="s">
+      <c r="D35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="52"/>
+      <c r="C36" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="58" t="s">
+      <c r="D36" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="52"/>
+      <c r="C37" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="52"/>
+      <c r="C38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="52"/>
+      <c r="C39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="52"/>
+      <c r="C40" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="18" customHeight="1">
+      <c r="B41" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="34"/>
+      <c r="C42" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="34"/>
+      <c r="C43" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="34"/>
+      <c r="C44" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="34"/>
+      <c r="C45" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="17" thickBot="1">
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="F11" s="64" t="s">
+      <c r="D45" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="34"/>
+      <c r="C46" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="34"/>
+      <c r="C47" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="48" t="s">
+      <c r="D48" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="44"/>
+      <c r="C49" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="17" thickBot="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="45"/>
-      <c r="F13" s="28" t="s">
+      <c r="D49" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="44"/>
+      <c r="C50" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="44"/>
+      <c r="C51" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="44"/>
+      <c r="C52" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="44"/>
+      <c r="C53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="17" customHeight="1">
+      <c r="B54" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="58" t="s">
+      <c r="D54" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="34"/>
+      <c r="C55" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="17" thickBot="1">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="F15" s="64" t="s">
+      <c r="D55" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="34"/>
+      <c r="C56" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="66" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="35" customHeight="1">
-      <c r="B16" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="48" t="s">
+      <c r="D56" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="34"/>
+      <c r="C57" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="34"/>
+      <c r="C58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="40"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="46"/>
-      <c r="F17" s="26" t="s">
+      <c r="D59" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="47"/>
+      <c r="C60" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="40"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="46"/>
-      <c r="F18" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="17" thickBot="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="47"/>
-      <c r="F19" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="58" t="s">
+      <c r="D60" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="16.5" thickBot="1">
+      <c r="B61" s="33"/>
+      <c r="C61" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="17" thickBot="1">
-      <c r="B21" s="61"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="63"/>
-      <c r="F21" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18" customHeight="1">
-      <c r="B22" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="40"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="46"/>
-      <c r="F23" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="17" thickBot="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="45"/>
-      <c r="F24" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="17" thickBot="1">
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="F26" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="35" customHeight="1">
-      <c r="B27" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="40"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="46"/>
-      <c r="F28" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="17" thickBot="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="45"/>
-      <c r="F29" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="17" thickBot="1">
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="F31" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>78</v>
+      <c r="D61" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="14">
+    <mergeCell ref="B41:B47"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B35:B40"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
